--- a/data/vector-mureco.xlsx
+++ b/data/vector-mureco.xlsx
@@ -622,7 +622,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Utility over Iteration for Vectors</a:t>
+              <a:t>Maximal Utility over Iteration for Parameters</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Function Vectors</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2088,11 +2096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46126592"/>
-        <c:axId val="46128128"/>
+        <c:axId val="81953536"/>
+        <c:axId val="81955456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46126592"/>
+        <c:axId val="81953536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46128128"/>
+        <c:crossAx val="81955456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2128,7 +2136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46128128"/>
+        <c:axId val="81955456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -2148,7 +2156,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Utility</a:t>
+                  <a:t>Maximal Utility</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2160,7 +2168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46126592"/>
+        <c:crossAx val="81953536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2186,16 +2194,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2507,7 +2515,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
